--- a/60 タクチケ管理システム/memo.xlsx
+++ b/60 タクチケ管理システム/memo.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="110">
   <si>
     <t>① タクシーチケット納品情報</t>
     <rPh sb="10" eb="12">
@@ -942,12 +942,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>未決区分=ON</t>
+    <rPh sb="0" eb="2">
+      <t>ミケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -987,6 +997,13 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="MeiryoKe_PGothic"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="MeiryoKe_PGothic"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1187,7 +1204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1248,15 +1265,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1281,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11028,52 +11051,52 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.83203125" defaultRowHeight="10.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="1.83203125" defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="16384" width="1.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
@@ -11091,14 +11114,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
@@ -11111,27 +11134,27 @@
     <col min="9" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="11.25">
       <c r="A1" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -11151,7 +11174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="2"/>
@@ -11163,7 +11186,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="5"/>
@@ -11175,7 +11198,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -11193,7 +11216,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="14"/>
       <c r="B6" s="14" t="s">
         <v>68</v>
@@ -11207,7 +11230,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>22</v>
@@ -11221,13 +11244,13 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
@@ -11241,7 +11264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="2"/>
@@ -11255,7 +11278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="2"/>
@@ -11267,7 +11290,7 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="2"/>
@@ -11279,7 +11302,7 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="2"/>
@@ -11291,7 +11314,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="2"/>
@@ -11305,7 +11328,7 @@
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="2"/>
@@ -11323,7 +11346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="14"/>
       <c r="B15" s="16"/>
       <c r="C15" s="2"/>
@@ -11337,7 +11360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="14"/>
       <c r="B16" s="16"/>
       <c r="C16" s="2"/>
@@ -11349,7 +11372,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="14"/>
       <c r="B17" s="16"/>
       <c r="C17" s="2"/>
@@ -11361,7 +11384,7 @@
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="14"/>
       <c r="B18" s="16"/>
       <c r="C18" s="2"/>
@@ -11373,7 +11396,7 @@
       </c>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="19"/>
       <c r="C19" s="5"/>
@@ -11387,7 +11410,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="14" t="s">
         <v>40</v>
       </c>
@@ -11407,7 +11430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="5"/>
@@ -11419,7 +11442,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
@@ -11433,7 +11456,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="2"/>
@@ -11445,7 +11468,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="2"/>
@@ -11457,7 +11480,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="2"/>
@@ -11469,7 +11492,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="2"/>
@@ -11481,7 +11504,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="5"/>
@@ -11493,7 +11516,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="13" t="s">
         <v>10</v>
       </c>
@@ -11507,7 +11530,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14" t="s">
         <v>76</v>
@@ -11519,7 +11542,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
         <v>77</v>
@@ -11531,7 +11554,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="13" t="s">
         <v>9</v>
       </c>
@@ -11551,7 +11574,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
         <v>8</v>
@@ -11565,25 +11588,25 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28" t="s">
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="14" t="s">
         <v>3</v>
       </c>
@@ -11603,7 +11626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="2"/>
@@ -11617,7 +11640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="2"/>
@@ -11629,7 +11652,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="2"/>
@@ -11641,135 +11664,133 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="15" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>6</v>
-      </c>
+    <row r="42" spans="1:8">
+      <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="2"/>
@@ -11777,11 +11798,13 @@
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
       <c r="G46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="2"/>
@@ -11789,11 +11812,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="2"/>
       <c r="G47" s="14" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="2"/>
@@ -11801,11 +11824,11 @@
       <c r="E48" s="3"/>
       <c r="F48" s="2"/>
       <c r="G48" s="14" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="2"/>
@@ -11813,11 +11836,11 @@
       <c r="E49" s="3"/>
       <c r="F49" s="2"/>
       <c r="G49" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="2"/>
@@ -11825,11 +11848,11 @@
       <c r="E50" s="3"/>
       <c r="F50" s="2"/>
       <c r="G50" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="2"/>
@@ -11837,11 +11860,11 @@
       <c r="E51" s="3"/>
       <c r="F51" s="2"/>
       <c r="G51" s="14" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="2"/>
@@ -11849,11 +11872,11 @@
       <c r="E52" s="3"/>
       <c r="F52" s="2"/>
       <c r="G52" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="2"/>
@@ -11861,11 +11884,11 @@
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
       <c r="G53" s="14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="2"/>
@@ -11873,11 +11896,11 @@
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
       <c r="G54" s="14" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="2"/>
@@ -11885,11 +11908,11 @@
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="14" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="2"/>
@@ -11897,37 +11920,37 @@
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
       <c r="G56" s="14" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>61</v>
+      <c r="F57" s="2"/>
+      <c r="G57" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="14" t="s">
-        <v>65</v>
+      <c r="F58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="2"/>
@@ -11935,11 +11958,11 @@
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
       <c r="G59" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="2"/>
@@ -11947,73 +11970,71 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
       <c r="G60" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>42</v>
+      <c r="F61" s="2"/>
+      <c r="G61" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="7" t="s">
-        <v>43</v>
+      <c r="F62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="11" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F64" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H64" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="2"/>
@@ -12021,11 +12042,13 @@
       <c r="E65" s="3"/>
       <c r="F65" s="14"/>
       <c r="G65" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="2"/>
@@ -12033,11 +12056,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="14"/>
       <c r="G66" s="4" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="2"/>
@@ -12045,11 +12068,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="14"/>
       <c r="G67" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="2"/>
@@ -12057,11 +12080,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="14"/>
       <c r="G68" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="2"/>
@@ -12069,11 +12092,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="14"/>
       <c r="G69" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="2"/>
@@ -12081,11 +12104,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="14"/>
       <c r="G70" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="2"/>
@@ -12093,11 +12116,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="14"/>
       <c r="G71" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="2"/>
@@ -12105,11 +12128,11 @@
       <c r="E72" s="3"/>
       <c r="F72" s="14"/>
       <c r="G72" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="2"/>
@@ -12117,11 +12140,11 @@
       <c r="E73" s="3"/>
       <c r="F73" s="14"/>
       <c r="G73" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="2"/>
@@ -12129,11 +12152,11 @@
       <c r="E74" s="3"/>
       <c r="F74" s="14"/>
       <c r="G74" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="2"/>
@@ -12141,11 +12164,11 @@
       <c r="E75" s="3"/>
       <c r="F75" s="14"/>
       <c r="G75" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="2"/>
@@ -12153,11 +12176,11 @@
       <c r="E76" s="3"/>
       <c r="F76" s="14"/>
       <c r="G76" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="2"/>
@@ -12165,37 +12188,37 @@
       <c r="E77" s="3"/>
       <c r="F77" s="14"/>
       <c r="G77" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="2"/>
       <c r="D78" s="4"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>61</v>
+      <c r="F78" s="14"/>
+      <c r="G78" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="14" t="s">
-        <v>65</v>
+      <c r="F79" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="2"/>
@@ -12203,11 +12226,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="2"/>
       <c r="G80" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="2"/>
@@ -12215,73 +12238,71 @@
       <c r="E81" s="3"/>
       <c r="F81" s="2"/>
       <c r="G81" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>42</v>
+      <c r="F82" s="2"/>
+      <c r="G82" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="7" t="s">
-        <v>43</v>
+      <c r="F83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:8">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B85" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11" t="s">
+      <c r="C85" s="10"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F85" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G84" s="12" t="s">
+      <c r="G85" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H85" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="2"/>
@@ -12289,11 +12310,13 @@
       <c r="E86" s="3"/>
       <c r="F86" s="14"/>
       <c r="G86" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H86" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="2"/>
@@ -12301,11 +12324,11 @@
       <c r="E87" s="3"/>
       <c r="F87" s="14"/>
       <c r="G87" s="4" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="H87" s="14"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="2"/>
@@ -12313,11 +12336,11 @@
       <c r="E88" s="3"/>
       <c r="F88" s="14"/>
       <c r="G88" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="H88" s="14"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="2"/>
@@ -12325,11 +12348,11 @@
       <c r="E89" s="3"/>
       <c r="F89" s="14"/>
       <c r="G89" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H89" s="14"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="2"/>
@@ -12337,11 +12360,11 @@
       <c r="E90" s="3"/>
       <c r="F90" s="14"/>
       <c r="G90" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H90" s="14"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="2"/>
@@ -12349,11 +12372,11 @@
       <c r="E91" s="3"/>
       <c r="F91" s="14"/>
       <c r="G91" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="2"/>
@@ -12361,11 +12384,11 @@
       <c r="E92" s="3"/>
       <c r="F92" s="14"/>
       <c r="G92" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="2"/>
@@ -12373,11 +12396,11 @@
       <c r="E93" s="3"/>
       <c r="F93" s="14"/>
       <c r="G93" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="2"/>
@@ -12385,11 +12408,11 @@
       <c r="E94" s="3"/>
       <c r="F94" s="14"/>
       <c r="G94" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="2"/>
@@ -12397,11 +12420,11 @@
       <c r="E95" s="3"/>
       <c r="F95" s="14"/>
       <c r="G95" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H95" s="14"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="2"/>
@@ -12409,11 +12432,11 @@
       <c r="E96" s="3"/>
       <c r="F96" s="14"/>
       <c r="G96" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H96" s="14"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="2"/>
@@ -12421,11 +12444,11 @@
       <c r="E97" s="3"/>
       <c r="F97" s="14"/>
       <c r="G97" s="4" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H97" s="14"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="2"/>
@@ -12433,37 +12456,37 @@
       <c r="E98" s="3"/>
       <c r="F98" s="14"/>
       <c r="G98" s="4" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H98" s="14"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>61</v>
+      <c r="F99" s="14"/>
+      <c r="G99" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H99" s="14"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="14" t="s">
-        <v>65</v>
+      <c r="F100" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="H100" s="14"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="2"/>
@@ -12471,11 +12494,11 @@
       <c r="E101" s="3"/>
       <c r="F101" s="2"/>
       <c r="G101" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="2"/>
@@ -12483,65 +12506,77 @@
       <c r="E102" s="3"/>
       <c r="F102" s="2"/>
       <c r="G102" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H102" s="14"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>42</v>
+      <c r="F103" s="2"/>
+      <c r="G103" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="7" t="s">
+    <row r="104" spans="1:8">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H104" s="15"/>
+      <c r="H105" s="15"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+    <row r="106" spans="1:8">
+      <c r="A106" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="10" t="s">
+      <c r="B106" s="13"/>
+      <c r="C106" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D106" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E106" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F105" s="23"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F106" s="23"/>
+      <c r="F106" s="20"/>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" s="20"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
